--- a/bots/crawl_ch/output/clothes_2022-08-12.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-12.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -788,7 +788,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3298,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-12 07:02:22</t>
+          <t>2022-08-12 20:58:15</t>
         </is>
       </c>
     </row>
